--- a/biology/Zoologie/Cerithiidae/Cerithiidae.xlsx
+++ b/biology/Zoologie/Cerithiidae/Cerithiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cerithiidae constituent une famille de mollusques de la classe des gastéropodes.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Cerithiidae comprend 24 genres et 200 espèces. Leur coquille fusiforme, de taille petite à moyenne, est caractérisée par une ouverture ovale dont le canal siphonal est en forme de bec verseur. Ils vivent généralement en milieu sableux et corallien, dans les eaux tropicales (où la majorité se trouve) et tempérées, le plus souvent à faible profondeur. Ils sont herbivores et détritivores [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Cerithiidae comprend 24 genres et 200 espèces. Leur coquille fusiforme, de taille petite à moyenne, est caractérisée par une ouverture ovale dont le canal siphonal est en forme de bec verseur. Ils vivent généralement en milieu sableux et corallien, dans les eaux tropicales (où la majorité se trouve) et tempérées, le plus souvent à faible profondeur. Ils sont herbivores et détritivores .
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (22 octobre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (22 octobre 2014) :
 sous-famille Alabininae Dall, 1927
 genre Alabina Dall, 1902
 sous-famille Bittiinae Cossmann, 1906
@@ -572,7 +588,7 @@
 genre Pseudovertagus Vignal, 1904
 genre Rhinoclavis Swainson, 1840
 genre Royella Iredale, 1912
-Selon Fossilworks[4] :
+Selon Fossilworks :
 sous-famille † Uchauxiinae Kollmann, 2005
 genre † Provolibathra Kollmann, 2005
 			Ataxocerithium serotinum
